--- a/06-03-2023/data/output/xlsx/sample_0/category__5.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,7 +52,7 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
@@ -61,6 +61,54 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
@@ -88,70 +136,238 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_unknowns__2</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_unknowns__2</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
@@ -181,12 +397,6 @@
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
@@ -217,171 +427,39 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
@@ -389,84 +467,6 @@
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -622,30 +622,78 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$7</c:f>
+              <c:f>AddsSubs!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$7</c:f>
+              <c:f>AddsSubs!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.01021450459652707</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.009685230024213076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01941747572815534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04761904761904762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05063291139240506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0576923076923077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05555555555555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,30 +814,48 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$7</c:f>
+              <c:f>MultsDivs!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$7</c:f>
+              <c:f>MultsDivs!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0160427807486631</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01408450704225352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01075268817204301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0136986301369863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01851851851851852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,30 +976,54 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$7</c:f>
+              <c:f>Equations!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$7</c:f>
+              <c:f>Equations!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.01003009027081244</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01009081735620585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01855287569573284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02034883720930233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02941176470588235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02205882352941177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,10 +1144,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$8</c:f>
+              <c:f>Decimals!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1066,16 +1156,40 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$8</c:f>
+              <c:f>Decimals!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.0112540192926045</c:v>
                 </c:pt>
@@ -1083,6 +1197,30 @@
                   <c:v>0.01219512195121951</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.01095890410958904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0158102766798419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01796407185628742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02380952380952381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04615384615384616</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02439024390243903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03225806451612903</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.04347826086956522</c:v>
                 </c:pt>
               </c:numCache>
@@ -1204,30 +1342,36 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$7</c:f>
+              <c:f>Unknowns!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$7</c:f>
+              <c:f>Unknowns!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.01002004008016032</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.008784773060029283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01052631578947368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0.02632877414108026</v>
+        <v>0.02632877414108027</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2032,175 +2176,191 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E5" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.01518296731970746</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E6" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.02375722428871377</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E7" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.03105579330796324</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="E8" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.03404544750969844</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="E9" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.02769984519880285</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="E10" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-0.01655667664667364</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E11" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.001796058319777318</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E12" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.002841772629739916</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2218,186 +2378,170 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01941747572815534</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.0269697780686198</v>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.03190951340626218</v>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.0406250768012691</v>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.05063291139240506</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.04499055202884157</v>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0576923076923077</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.04238653932314402</v>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.01308951990770173</v>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.02133893042983952</v>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.02546296296296297</v>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2405,13 +2549,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0112540192926045</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="E22" s="1">
         <v>0.01002004008016032</v>
@@ -2420,7 +2564,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="1">
-        <v>0.01942206463171349</v>
+        <v>-0.02780081160528082</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2428,13 +2572,13 @@
         <v>40</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01219512195121951</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E23" s="1">
         <v>0.01002004008016032</v>
@@ -2443,7 +2587,7 @@
         <v>41</v>
       </c>
       <c r="G23" s="1">
-        <v>0.02057408136207628</v>
+        <v>-0.02592572752686061</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2451,13 +2595,13 @@
         <v>42</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.04347826086956522</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E24" s="1">
         <v>0.01002004008016032</v>
@@ -2466,7 +2610,7 @@
         <v>43</v>
       </c>
       <c r="G24" s="1">
-        <v>0.03678240036935688</v>
+        <v>-0.02676198429312678</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2474,49 +2618,53 @@
         <v>44</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E25" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.02398842141148718</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E26" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
+      <c r="F26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-0.02146505634246569</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -2534,10 +2682,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
@@ -2555,10 +2703,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -2576,10 +2724,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2597,10 +2745,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2618,10 +2766,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2639,7 +2787,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2660,33 +2808,31 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01095890410958904</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.02028689269214127</v>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2704,136 +2850,148 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.01003009027081244</v>
       </c>
       <c r="E36" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
+      <c r="F36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.02600356615819281</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.01009081735620585</v>
       </c>
       <c r="E37" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>12</v>
+      <c r="F37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.02604970712571241</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.01855287569573284</v>
       </c>
       <c r="E38" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
+      <c r="F38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.02770431201074454</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.02034883720930233</v>
       </c>
       <c r="E39" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>12</v>
+      <c r="F39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.01331639546325525</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E40" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
+      <c r="F40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.01663862968198012</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="E41" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>12</v>
+      <c r="F41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-0.0410672914406295</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
@@ -2851,10 +3009,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -2872,10 +3030,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -2893,209 +3051,195 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.0158102766798419</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.02268127648179848</v>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.01796407185628742</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.02176542017355616</v>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.02443949651972958</v>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0.03529411764705882</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.03049694412162715</v>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>0.04615384615384616</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.03719664705141731</v>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.02439024390243903</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="E50" s="1">
         <v>0.01002004008016032</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G50" s="1">
-        <v>0.02277273943116548</v>
+        <v>0.01928833903956039</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.03225806451612903</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="E51" s="1">
         <v>0.01002004008016032</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G51" s="1">
-        <v>0.02807100283536712</v>
+        <v>0.02760536461116285</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01003009027081244</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.0260035661581928</v>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01009081735620585</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.02604970712571241</v>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3103,7 +3247,7 @@
         <v>83</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
@@ -3124,7 +3268,7 @@
         <v>84</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
@@ -3145,7 +3289,7 @@
         <v>85</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -3166,7 +3310,7 @@
         <v>86</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3187,99 +3331,91 @@
         <v>87</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.01855287569573284</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.02770431201074453</v>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.02034883720930233</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.02652608820630883</v>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.02980964450738186</v>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.02205882352941177</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.01848150908005032</v>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3297,10 +3433,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3318,10 +3454,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
@@ -3339,132 +3475,140 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>0.0112540192926045</v>
       </c>
       <c r="E65" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>12</v>
+      <c r="F65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="1">
+        <v>-0.02103021597593602</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0160427807486631</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E66" s="1">
         <v>0.01002004008016032</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G66" s="1">
-        <v>0.007294384583769482</v>
+        <v>-0.004399182981365097</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.01408450704225352</v>
+        <v>0.01095890410958904</v>
       </c>
       <c r="E67" s="1">
         <v>0.01002004008016032</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G67" s="1">
-        <v>0.007324687580086253</v>
+        <v>-0.001651627350047278</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="E68" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>12</v>
+      <c r="F68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.002967707550116865</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E69" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>12</v>
+      <c r="F69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="1">
+        <v>-0.0003425273153386205</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="E70" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>12</v>
+      <c r="F70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.004108029571116358</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3472,118 +3616,122 @@
         <v>106</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="E71" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>12</v>
+      <c r="F71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.01227843216502826</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.01075268817204301</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="E72" s="1">
         <v>0.01002004008016032</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G72" s="1">
-        <v>0.004599135743230113</v>
+        <v>0.01983430264377283</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.0136986301369863</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E73" s="1">
         <v>0.01002004008016032</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G73" s="1">
-        <v>0.005529123090647211</v>
+        <v>-0.002562360744705441</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.01851851851851852</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E74" s="1">
         <v>0.01002004008016032</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G74" s="1">
-        <v>0.007074398783082257</v>
+        <v>0.00442428514015067</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E75" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>12</v>
+      <c r="F75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.01424874954936069</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3601,10 +3749,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3622,10 +3770,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3643,10 +3791,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3664,16 +3812,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.01002004008016032</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
         <v>0.01002004008016032</v>
@@ -3685,16 +3833,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.008784773060029283</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
         <v>0.01002004008016032</v>
@@ -3706,10 +3854,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3727,10 +3875,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3748,10 +3896,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3769,33 +3917,31 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.01052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.01245125808255788</v>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3813,10 +3959,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3834,10 +3980,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3855,10 +4001,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3876,10 +4022,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3897,10 +4043,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -3918,10 +4064,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3939,25 +4085,23 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.02010050251256281</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0.02739628745242706</v>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3965,36 +4109,34 @@
         <v>134</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.03821656050955414</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.03729767457471576</v>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.01002004008016032</v>
       </c>
       <c r="E95" s="1">
         <v>0.01002004008016032</v>
@@ -4006,16 +4148,16 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.008784773060029283</v>
       </c>
       <c r="E96" s="1">
         <v>0.01002004008016032</v>
@@ -4027,23 +4169,25 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E97" s="1">
         <v>0.01002004008016032</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>12</v>
+      <c r="F97" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G97" s="1">
+        <v>-0.02099451920645102</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4051,7 +4195,7 @@
         <v>139</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
@@ -4072,7 +4216,7 @@
         <v>140</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
@@ -4093,7 +4237,7 @@
         <v>141</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -4114,7 +4258,7 @@
         <v>142</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4135,7 +4279,7 @@
         <v>143</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4156,7 +4300,7 @@
         <v>144</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4177,7 +4321,7 @@
         <v>145</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4198,7 +4342,7 @@
         <v>146</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4219,7 +4363,7 @@
         <v>147</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4240,7 +4384,7 @@
         <v>148</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4263,7 +4407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4404,6 +4548,350 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01941747572815534</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.009397435647995018</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.02028299022286998</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0375990075388873</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.04061287131224474</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.04767226761214738</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.025</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.01497995991983968</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.03543450537438514</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.04553551547539524</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4412,7 +4900,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4469,7 +4957,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4512,7 +5000,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4550,6 +5038,135 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01075268817204301</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0007326480918826914</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.00367859005682598</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.008498478438358197</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4561,7 +5178,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4618,7 +5235,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4661,7 +5278,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4699,6 +5316,178 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01855287569573284</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.008532835615572519</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.02034883720930233</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.01032879712914201</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.01939172462572203</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02205882352941177</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.01203878344925145</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
         <v>0</v>
       </c>
     </row>
@@ -4709,6 +5498,542 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="3">
+        <v>622</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0112540192926045</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.001233979212444182</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3">
+        <v>492</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.01219512195121951</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.002175081871059192</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="3">
+        <v>365</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0009388640294287209</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0158102766798419</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.005790236599681576</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.01796407185628742</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.007944031776127104</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.01378948372936349</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.03529411764705882</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.0252740775668985</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.04615384615384616</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.03613380607368584</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.0143702038222787</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.02223802443596871</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.01002004008016032</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.0334582207894049</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -4721,7 +6046,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4767,22 +6092,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3">
-        <v>622</v>
+        <v>998</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0112540192926045</v>
+        <v>0.01002004008016032</v>
       </c>
       <c r="E4" s="3">
         <v>0.01002004008016032</v>
       </c>
       <c r="F4" s="1">
-        <v>0.001233979212444182</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4810,22 +6135,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3">
-        <v>492</v>
+        <v>683</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01219512195121951</v>
+        <v>0.008784773060029283</v>
       </c>
       <c r="E5" s="3">
         <v>0.01002004008016032</v>
       </c>
       <c r="F5" s="1">
-        <v>0.002175081871059192</v>
+        <v>-0.001235267020131037</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4853,22 +6178,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.04347826086956522</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E6" s="3">
         <v>0.01002004008016032</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0334582207894049</v>
+        <v>0.0005062757093133637</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4891,155 +6216,6 @@
       </c>
       <c r="L6" s="1">
         <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="3">
-        <v>998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="3">
-        <v>683</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.008784773060029283</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.001235267020131037</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
         <v>0</v>
       </c>
     </row>
@@ -5108,7 +6284,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -5151,7 +6327,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>

--- a/06-03-2023/data/output/xlsx/sample_0/category__5.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="150">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,63 +52,45 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__7,num_of_equals__7,num_of_equals__8</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__6,num_of_equals__7,num_of_equals__8</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
@@ -136,36 +118,201 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_decimals__0</t>
+  </si>
+  <si>
+    <t>num_of_decimals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_decimals__11</t>
+  </si>
+  <si>
+    <t>num_of_decimals__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__13</t>
+  </si>
+  <si>
+    <t>num_of_decimals__14</t>
+  </si>
+  <si>
+    <t>num_of_decimals__15</t>
+  </si>
+  <si>
+    <t>num_of_decimals__16</t>
+  </si>
+  <si>
+    <t>num_of_decimals__17</t>
+  </si>
+  <si>
+    <t>num_of_decimals__18</t>
+  </si>
+  <si>
+    <t>num_of_decimals__19</t>
+  </si>
+  <si>
+    <t>num_of_decimals__20</t>
+  </si>
+  <si>
+    <t>num_of_decimals__21</t>
+  </si>
+  <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_equals__8,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
@@ -193,84 +340,66 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
+    <t>num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_equals__7,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_equals__7,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__11</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
@@ -302,171 +431,6 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__11</t>
-  </si>
-  <si>
-    <t>num_of_decimals__12</t>
-  </si>
-  <si>
-    <t>num_of_decimals__13</t>
-  </si>
-  <si>
-    <t>num_of_decimals__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__15</t>
-  </si>
-  <si>
-    <t>num_of_decimals__16</t>
-  </si>
-  <si>
-    <t>num_of_decimals__17</t>
-  </si>
-  <si>
-    <t>num_of_decimals__18</t>
-  </si>
-  <si>
-    <t>num_of_decimals__19</t>
-  </si>
-  <si>
-    <t>num_of_decimals__20</t>
-  </si>
-  <si>
-    <t>num_of_decimals__21</t>
-  </si>
-  <si>
-    <t>num_of_decimals__22</t>
-  </si>
-  <si>
-    <t>num_of_decimals__23</t>
-  </si>
-  <si>
-    <t>num_of_decimals__24</t>
-  </si>
-  <si>
-    <t>num_of_decimals__25</t>
-  </si>
-  <si>
-    <t>num_of_decimals__26</t>
-  </si>
-  <si>
-    <t>num_of_decimals__27</t>
-  </si>
-  <si>
-    <t>num_of_decimals__28</t>
-  </si>
-  <si>
-    <t>num_of_decimals__29</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,pairs_of_parentheses__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__11</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -622,10 +586,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$15</c:f>
+              <c:f>AddsSubs!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -649,51 +613,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$15</c:f>
+              <c:f>AddsSubs!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.01021450459652707</c:v>
+                  <c:v>0.9636363636363636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.009685230024213076</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01941747572815534</c:v>
+                  <c:v>0.9545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0303030303030303</c:v>
+                  <c:v>0.9230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04761904761904762</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05063291139240506</c:v>
+                  <c:v>0.6666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0576923076923077</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04545454545454546</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05555555555555555</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,10 +766,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$10</c:f>
+              <c:f>MultsDivs!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -829,33 +781,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$10</c:f>
+              <c:f>MultsDivs!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0160427807486631</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01408450704225352</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01075268817204301</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0136986301369863</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01851851851851852</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,10 +922,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$11</c:f>
+              <c:f>Equations!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -997,33 +943,51 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$11</c:f>
+              <c:f>Equations!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.01003009027081244</c:v>
+                  <c:v>0.9636363636363636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01009081735620585</c:v>
+                  <c:v>0.9636363636363636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01855287569573284</c:v>
+                  <c:v>0.9629629629629629</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02034883720930233</c:v>
+                  <c:v>0.9473684210526315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02941176470588235</c:v>
+                  <c:v>0.9090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02205882352941177</c:v>
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,37 +1155,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.0112540192926045</c:v>
+                  <c:v>0.9459459459459459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01219512195121951</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01095890410958904</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0158102766798419</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01796407185628742</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02380952380952381</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03529411764705882</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.04615384615384616</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02439024390243903</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03225806451612903</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,10 +1306,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$8</c:f>
+              <c:f>Unknowns!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1354,24 +1318,36 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$8</c:f>
+              <c:f>Unknowns!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.01002004008016032</c:v>
+                  <c:v>0.9636363636363636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.008784773060029283</c:v>
+                  <c:v>0.9487179487179487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01052631578947368</c:v>
+                  <c:v>0.8333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,30 +1468,42 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.02010050251256281</c:v>
+                  <c:v>0.9230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03821656050955414</c:v>
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2132,22 +2120,20 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>979</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01021450459652707</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.02632877414108027</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2155,20 +2141,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>826</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.009685230024213076</v>
+        <v>0.98</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2176,191 +2164,179 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01941747572815534</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.01518296731970746</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0303030303030303</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.02375722428871377</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04761904761904762</v>
+        <v>0.8</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.03105579330796324</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.05063291139240506</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.03404544750969844</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0576923076923077</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
-        <v>0.02769984519880285</v>
+        <v>0.5051020408163265</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1">
-        <v>-0.01655667664667364</v>
+        <v>0.5051020408163265</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-0.001796058319777318</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.002841772629739916</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2369,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
@@ -2390,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
@@ -2411,19 +2387,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -2432,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -2453,19 +2429,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -2474,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
@@ -2495,19 +2471,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
@@ -2516,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -2537,260 +2513,270 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0160427807486631</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="1">
-        <v>-0.02780081160528082</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01408450704225352</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1">
-        <v>-0.02592572752686061</v>
+        <v>0.803030303030303</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01075268817204301</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G24" s="1">
-        <v>-0.02676198429312678</v>
+        <v>0.6455026455026456</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0136986301369863</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1">
-        <v>-0.02398842141148718</v>
+        <v>0.5735294117647058</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01851851851851852</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1">
-        <v>-0.02146505634246569</v>
+        <v>0.5018315018315018</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.4303135888501742</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.3588039867109635</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.3022727272727272</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.2020833333333333</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.2020833333333333</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.2020833333333333</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -2799,19 +2785,19 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -2820,19 +2806,19 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2841,157 +2827,145 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01003009027081244</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.02600356615819281</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1">
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01009081735620585</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.02604970712571241</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01855287569573284</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.02770431201074454</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.02034883720930233</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.01331639546325525</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.01663862968198012</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0.02205882352941177</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="1">
-        <v>-0.0410672914406295</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
@@ -3000,19 +2974,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -3021,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B44" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -3042,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
@@ -3063,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -3084,19 +3058,19 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -3105,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
@@ -3126,19 +3100,19 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
@@ -3147,254 +3121,254 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.02010050251256281</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.01928833903956039</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.03821656050955414</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.02760536461116285</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E57" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E58" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.670138888888889</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.5051020408163265</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -3403,19 +3377,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3424,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3445,19 +3419,19 @@
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
@@ -3466,272 +3440,258 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.0112540192926045</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G65" s="1">
-        <v>-0.02103021597593602</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B66" s="1">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.01219512195121951</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G66" s="1">
-        <v>-0.004399182981365097</v>
+        <v>0.3655705996131528</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B67" s="1">
-        <v>365</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.01095890410958904</v>
+        <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G67" s="1">
-        <v>-0.001651627350047278</v>
+        <v>0.2746615087040619</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B68" s="1">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.0158102766798419</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G68" s="1">
-        <v>0.002967707550116865</v>
+        <v>0.1837121212121212</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.01796407185628742</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G69" s="1">
-        <v>-0.0003425273153386205</v>
+        <v>0.002040816326530615</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.004108029571116358</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.03529411764705882</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.01227843216502826</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B72" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.04615384615384616</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.01983430264377283</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G73" s="1">
-        <v>-0.002562360744705441</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B74" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.00442428514015067</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B75" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.01424874954936069</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3740,19 +3700,19 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3761,19 +3721,19 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3782,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3803,124 +3763,128 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="E80" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="E81" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E82" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.3401360544217687</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.006802721088435382</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
@@ -3929,19 +3893,19 @@
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3950,19 +3914,19 @@
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3971,19 +3935,19 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3992,19 +3956,19 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -4013,19 +3977,19 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -4034,19 +3998,19 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -4055,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -4076,126 +4040,126 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E93" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E94" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B95" s="1">
-        <v>998</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E95" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B96" s="1">
-        <v>683</v>
+        <v>1</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.008784773060029283</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>12</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.004081632653061229</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.01052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G97" s="1">
-        <v>-0.02099451920645102</v>
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B98" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
@@ -4204,19 +4168,19 @@
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
@@ -4225,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B100" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -4246,19 +4210,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4267,19 +4231,19 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4288,19 +4252,19 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4309,19 +4273,19 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B104" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4330,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B105" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4351,19 +4315,19 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4372,19 +4336,19 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4393,11 +4357,11 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +4371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4418,7 +4382,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4441,25 +4405,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4467,19 +4431,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>979</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01021450459652707</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0001944645163667481</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4510,19 +4474,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>826</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.009685230024213076</v>
+        <v>0.98</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.0003348100559472447</v>
+        <v>0.01636363636363636</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4553,19 +4517,19 @@
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01941747572815534</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F6" s="1">
-        <v>0.009397435647995018</v>
+        <v>-0.009090909090909038</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4593,22 +4557,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0303030303030303</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F7" s="1">
-        <v>0.02028299022286998</v>
+        <v>-0.0405594405594405</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4636,22 +4600,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.04761904761904762</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0375990075388873</v>
+        <v>-0.1636363636363636</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4679,22 +4643,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.05063291139240506</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F9" s="1">
-        <v>0.04061287131224474</v>
+        <v>-0.296969696969697</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4722,22 +4686,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.0576923076923077</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F10" s="1">
-        <v>0.04767226761214738</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4765,22 +4729,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F11" s="1">
-        <v>0.01497995991983968</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -4803,92 +4767,6 @@
       </c>
       <c r="L11" s="1">
         <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.03543450537438514</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.04553551547539524</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -4900,7 +4778,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4911,7 +4789,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4934,45 +4812,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0160427807486631</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F4" s="1">
-        <v>0.006022740668502783</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5000,22 +4878,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01408450704225352</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F5" s="1">
-        <v>0.004064466962093201</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5043,22 +4921,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01075268817204301</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0007326480918826914</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5086,22 +4964,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B7" s="3">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0136986301369863</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F7" s="1">
-        <v>0.00367859005682598</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5124,49 +5002,6 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="3">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.01851851851851852</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.01002004008016032</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.008498478438358197</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5178,7 +5013,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5189,7 +5024,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5212,45 +5047,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3">
-        <v>997</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01003009027081244</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F4" s="1">
-        <v>1.005019065211665E-05</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5278,22 +5113,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3">
-        <v>991</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01009081735620585</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F5" s="1">
-        <v>7.077727604553295E-05</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5321,22 +5156,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3">
-        <v>539</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01855287569573284</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F6" s="1">
-        <v>0.008532835615572519</v>
+        <v>-0.0006734006734007147</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5364,22 +5199,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.02034883720930233</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01032879712914201</v>
+        <v>-0.0162679425837321</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5407,22 +5242,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.02941176470588235</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F8" s="1">
-        <v>0.01939172462572203</v>
+        <v>-0.05454545454545456</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5450,22 +5285,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02205882352941177</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F9" s="1">
-        <v>0.01203878344925145</v>
+        <v>-0.1064935064935065</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5488,6 +5323,135 @@
       </c>
       <c r="L9" s="1">
         <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.1636363636363636</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.03636363636363638</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.03636363636363638</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
         <v>0</v>
       </c>
     </row>
@@ -5510,7 +5474,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5533,45 +5497,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3">
-        <v>622</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0112540192926045</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F4" s="1">
-        <v>0.001233979212444182</v>
+        <v>-0.01769041769041768</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5599,22 +5563,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
-        <v>492</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01219512195121951</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F5" s="1">
-        <v>0.002175081871059192</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5642,22 +5606,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01095890410958904</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0009388640294287209</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5685,22 +5649,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0158102766798419</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F7" s="1">
-        <v>0.005790236599681576</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5728,22 +5692,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.01796407185628742</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F8" s="1">
-        <v>0.007944031776127104</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5771,22 +5735,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02380952380952381</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F9" s="1">
-        <v>0.01378948372936349</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5814,22 +5778,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.03529411764705882</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0252740775668985</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5857,22 +5821,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.04615384615384616</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F11" s="1">
-        <v>0.03613380607368584</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5900,22 +5864,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.02439024390243903</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F12" s="1">
-        <v>0.0143702038222787</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5943,22 +5907,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.03225806451612903</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F13" s="1">
-        <v>0.02223802443596871</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5986,22 +5950,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.04347826086956522</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F14" s="1">
-        <v>0.0334582207894049</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6035,7 +5999,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6046,7 +6010,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6069,42 +6033,42 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3">
-        <v>998</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6135,22 +6099,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3">
-        <v>683</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.008784773060029283</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.001235267020131037</v>
+        <v>-0.01491841491841495</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6178,22 +6142,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B6" s="3">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01052631578947368</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0005062757093133637</v>
+        <v>-0.1303030303030303</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6216,6 +6180,92 @@
       </c>
       <c r="L6" s="1">
         <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.03636363636363638</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.03636363636363638</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6227,7 +6277,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6238,7 +6288,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6261,45 +6311,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3">
-        <v>398</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.02010050251256281</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F4" s="1">
-        <v>0.01008046243240249</v>
+        <v>-0.0405594405594405</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6327,22 +6377,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.03821656050955414</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01002004008016032</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="F5" s="1">
-        <v>0.02819652042939382</v>
+        <v>-0.0636363636363636</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6365,6 +6415,92 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.296969696969697</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.03636363636363638</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
         <v>0</v>
       </c>
     </row>
